--- a/Customer_testcases.xlsx
+++ b/Customer_testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -71,6 +71,45 @@
   </si>
   <si>
     <t>TC_ADD CUSTOMER_001</t>
+  </si>
+  <si>
+    <t>Verify the details of Customer while adding</t>
+  </si>
+  <si>
+    <t>Enter Customer name,address ,valid phone no.,valid email ID ,valid Aadhar no.,but invalid PAN number</t>
+  </si>
+  <si>
+    <t>Need a valid customer details to add customer</t>
+  </si>
+  <si>
+    <t>Enter name ,address, mobile number,Aadhar number,PAN number and click on enter button.</t>
+  </si>
+  <si>
+    <t>&lt;valid mobile no.&gt; , &lt;valid Aadharno&gt;  &lt;invalid PANno&gt;</t>
+  </si>
+  <si>
+    <t>A message ' PAN number is invalid or already exists' is shown</t>
+  </si>
+  <si>
+    <t>Enter Customer name,address ,valid phone no.,valid email ID ,invalid Aadhar no.,valid PAN number</t>
+  </si>
+  <si>
+    <t>&lt;valid mobile no.&gt; &lt;invalid Aadharno&gt;  &lt;valid PANno&gt;</t>
+  </si>
+  <si>
+    <t>A message ' Aadhar number is invalid or already exists' is shown</t>
+  </si>
+  <si>
+    <t>Enter all other details valid but Date of birth invalid</t>
+  </si>
+  <si>
+    <t>Enter name ,address, mobile number,Aadhar number,PAN number ,DOB and click on enter button.</t>
+  </si>
+  <si>
+    <t>&lt;valid all_details&gt;   &lt;invalid DOB&gt;</t>
+  </si>
+  <si>
+    <t>A message 'DOB is invalid or customer below 18 years' is shown</t>
   </si>
 </sst>
 </file>
@@ -223,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -243,6 +282,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,27 +602,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1"/>
+    <col min="7" max="8" width="25.1796875" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -576,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -584,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -592,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -600,7 +653,7 @@
         <v>43736</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -608,16 +661,16 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -630,7 +683,7 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -649,13 +702,74 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
